--- a/global/Global.xlsx
+++ b/global/Global.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,12 +1025,12 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Visio</t>
+          <t>SelfCare</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>AvvioVisio</t>
+          <t>AvvioAccertSelfCare</t>
         </is>
       </c>
     </row>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Visio</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>AvvioVisio</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>AvvioDesk</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCE</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
@@ -1093,12 +1093,12 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SelfCare</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>AvvioAccertSelfCare</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
@@ -1156,63 +1156,63 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>AvvioVisio</t>
+          <t>AvvioAccertSelfCare</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>VisioPianificata</t>
+          <t>AccertSelfCareAvviati</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>GestioneSelfCare</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>GestioneSelfCare</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>VisioPianificata</t>
+          <t>AvvioPeriziaPostSelfCare</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>GestioneSelfCare</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>VisioCompletataNuovaVisio</t>
+          <t>AvvioChiusuraPostSelfCare</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioVisio</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>VisioPianificata</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1224,12 +1224,12 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioManualeVisio</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>VisioPianificata</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>VisioCompletataNuovaVisio</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioManualeVisio</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>VisioRifiutata</t>
+          <t>AppuntamentoModificato</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneVisio</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
@@ -1280,126 +1280,126 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>VisioCompletata</t>
+          <t>AppuntamentoAnnullato</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneVisio</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>VisioAssegnata</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>DeskPianificata</t>
+          <t>VisioRifiutata</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>RiassegnazioneVisio</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>DeskPianificata</t>
+          <t>VisioCompletata</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>RiassegnazioneVisio</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>DeskCompletataNuovaDesk</t>
+          <t>VisioAssegnata</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>AvvioManualeVisio</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>RichiestaModificaApptoPaVisio</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>RichiestaPaRicevuta</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>ConfermaModificaApptoPaVisio</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>ConfermaPaRicevuta</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AvvioDesk</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>DeskPianificata</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1411,17 +1411,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
+          <t>AvvioManualeDesk</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>DeskPianificata</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
           <t>EsecuzioneDesk</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>DeskRifiutata</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>RiassegnazioneDesk</t>
         </is>
       </c>
     </row>
@@ -1433,954 +1433,959 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>DeskCompletata</t>
+          <t>DeskCompletataNuovaDesk</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>AvvioManualeDesk</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneDesk</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>DeskAssegnata</t>
+          <t>AppuntamentoModificato</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoAvviato</t>
+          <t>AppuntamentoAnnullato</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogo</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogo</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoAssegnato</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPianificato</t>
+          <t>DeskRifiutata</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>RiassegnazioneDesk</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>EsecuzioneDesk</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoRifiutato</t>
+          <t>DeskCompletata</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoDopoRifiuto</t>
+          <t>AvvioPeriziaPostDesk</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>RiassegnazioneDesk</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>DeskAssegnata</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>AvvioManualeDesk</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>RichiestaModificaApptoPaDesk</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAttivita</t>
+          <t>RichiestaPaRicevuta</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>ConfermaModificaApptoPaDesk</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>ConfermaPaRicevuta</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>SopralluogoAvviato</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>AssegnazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>AssegnazioneSopralluogo</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoCompletatoNuovo</t>
+          <t>SopralluogoAssegnato</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogo</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
+          <t>PianificazioneSopralluogo</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>SopralluogoPianificato</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
           <t>EsecuzioneSopralluogo</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>SoprallugoCompletato</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
+          <t>PianificazioneSopralluogo</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>SopralluogoRifiutato</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
           <t>VerificaSopralluogoDopoRifiuto</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>SopralluogoAssegnato</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogo</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Approvato</t>
+          <t>AnnullamentoSopralluogo</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>AssegnazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogo</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>NonApprovato</t>
+          <t>AppuntamentoAnnullato</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEAvviato</t>
+          <t>ChiusuraAttivita</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogoPCE</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogoPCE</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEAssegnato</t>
+          <t>ChiusuraSoprallVariato</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEPianificato</t>
+          <t>AppuntamentoModificato</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCERifiutato</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoPCEDopoRifiuto</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>SopralluogoCompletatoNuovo</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAttivita</t>
+          <t>SoprallugoCompletato</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>VerificaSopralluogoDopoRifiuto</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>SopralluogoAssegnato</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>Approvato</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCECompletatoNuovo</t>
+          <t>NonApprovato</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogoPCE</t>
+          <t>NuovoSopralluogoNonApprovato</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>RichiestaModificaApptoPaSopralluogo</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>SoprallugoCompletato</t>
+          <t>RichiestaPaRicevuta</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoPCEDopoRifiuto</t>
+          <t>ConfermaModificaApptoPaSopralluogo</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEAssegnato</t>
+          <t>ConfermaPaRicevuta</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogoPCE</t>
+          <t>NuovoSopralluogoNonApprovato</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Approvato</t>
+          <t>NonApprovato</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogoPCE</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>NonApprovato</t>
+          <t>SopralluogoPCEAvviato</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>AssegnazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>AvvioAccertSelfCare</t>
+          <t>AssegnazioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>SelfCareInPerizia</t>
+          <t>SopralluogoPCEAssegnato</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>AvvioAccertSelfCare</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>SelfCareInChiusura</t>
+          <t>SopralluogoPCEPianificato</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>PeriziaAvviata</t>
+          <t>SopralluogoPCERifiutato</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>VerificaSopralluogoPCEDopoRifiuto</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>PeriziaAvviata</t>
+          <t>AnnullamentoSopralluogo</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AssegnazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaContestazione</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>PeriziaContestazioneAvviata</t>
+          <t>AppuntamentoAnnullato</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIncompleta</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>PeriziaIncompletaAvviata</t>
+          <t>ChiusuraAttivita</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIntegrazione</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>PeriziaIntegrazioneAvviata</t>
+          <t>ChisuraSoprallVariato</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>CollabAvviata</t>
+          <t>AppuntamentoModificato</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneNonCompletata</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>RevisioneAvviata</t>
+          <t>SopralluogoPCECompletatoNuovo</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>ApprovazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNonNecessaria</t>
+          <t>SoprallugoCompletato</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>VerificaSopralluogoPCEDopoRifiuto</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>CollabAvviata</t>
+          <t>SopralluogoPCEAssegnato</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>PianificazioneSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>ApprovazioneSopralluogoPCE</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>RevisioneAvviata</t>
+          <t>Approvato</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>RichiestaModificaApptoPaSopralluogoPCE</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNecessaria</t>
+          <t>RichiestaPaRicevuta</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>ConfermaModificaApptoPaSopralluogoPCE</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>RevisioniCompletate</t>
+          <t>ConfermaPaRicevuta</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>NuovoSopralluogoNonApprovatoPCE</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>RevisioniNonCompletate</t>
+          <t>NonApprovato</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>PeriziaAvviata</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>AvvioPeriziaPostDesk</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>EsitoScrittoEmail</t>
+          <t>PeriziaAvviata</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>InvioEmailEsito</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>AvvioPeriziaContestazione</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>EsitoScrittoAtto</t>
+          <t>PeriziaContestazioneAvviata</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>AvvioPeriziaIncompleta</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>PeriziaIncompletaAvviata</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>AvvioPeriziaIntegrazione</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>AccordoRaggiunto-o-NonRichiesto</t>
+          <t>PeriziaIntegrazioneAvviata</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>InvioEmailEsito</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>EmailEsitoInviata</t>
+          <t>CollabAvviata</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>AttoInviato</t>
+          <t>CollaborazioneNonCompletata</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>ConciliazioneAvviata</t>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>ForzaturaChiusura</t>
+          <t>AuthorityNonNecessaria</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
+          <t>EsecuzionePerizia</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>CollabAvviata</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
           <t>CollaborazionePerizia</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>CollabRifiutata</t>
-        </is>
-      </c>
-      <c r="C112" s="2" t="inlineStr">
-        <is>
-          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>CollabCancellata</t>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>CollabCompletata</t>
+          <t>AuthorityNecessaria</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>PeriziaInRevisione</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>RevisioniCompletate</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -2392,128 +2397,148 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>PeriziaInRevisione</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>RevisioniNonCompletate</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>ComunicazioneEsito</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>EsitoScrittoEmail</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>EsitoScrittoAtto</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>InvioAtto</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>ComunicazioneEsito</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>AccordoNonRaggiunto</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>ComunicazioneEsito</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>AccordoRaggiunto-o-NonRichiesto</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaConciliazione</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>PeriziaConcilazioneAvviata</t>
+          <t>EmailEsitoInviata</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>InvioAtto</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>PeriziaConcilazione</t>
+          <t>AttoInviato</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaConciliazione</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>ConciliazioneAvviata</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -2525,12 +2550,12 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraConAccordo</t>
+          <t>ForzaturaChiusura</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
@@ -2542,329 +2567,334 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>PeriziaNonApprovata</t>
+          <t>CollabRifiutata</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>PeriziaApprovata</t>
+          <t>CollabCancellata</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>AvvioRiparazione</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneAvviata</t>
+          <t>CollabCompletata</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>ConfigurazioneRiparazione</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>ConfigurazioneRiparazione</t>
-        </is>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>RiparazioneConfigurata</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>DefinizioneTimeline</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>DefinizioneTimeline</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>TimelineDefinita</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneMonitoraggio</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>DefinizioneTimeline</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamentoR</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneMonitoraggio</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioTerminato</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneMonitoraggio</t>
+          <t>RevisionePerizia</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>RiparazioneNonChiusa</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>ConfigurazioneRiparazione</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaPostRiparazione</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>AvviaPeriziaPostRiparazione</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>AvvioPeriziaConciliazione</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraPostRiparazione</t>
+          <t>PeriziaConcilazioneAvviata</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusuraPostRiparazione</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>ConciliazionePerizia</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaConcilazione</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusuraRiparazione</t>
+          <t>AvvioPeriziaConciliazione</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneBudget</t>
+          <t>ConciliazionePerizia</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>BudgetInApprovazione</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneAttivita</t>
+          <t>ConciliazionePerizia</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraConAccordo</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>AttivitaApprovata</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamentoR</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoPianificato</t>
+          <t>PeriziaNonApprovata</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoR</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoR</t>
+          <t>VerificaAuthority</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaApprovata</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneBudget</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoR</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>SoprallugoCompletato</t>
+          <t>RiparazioneAvviata</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>BudgetInApprovazione</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>BudgetInApprovazione</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>BudgetApprovato</t>
+          <t>RiparazioneConfigurata</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneAttivita</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneAttivita</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>AttivitaCompletata</t>
+          <t>TimelineDefinita</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>AttivitaInApprovazione</t>
+          <t>AssegnazioneMonitoraggio</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneAttivita</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>AttivitaApprovata</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>AttivitaInApprovazione</t>
+          <t>AssegnazioneMonitoraggio</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>AttivitaApprovata</t>
+          <t>MonitoraggioTerminato</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>AttivitaApprovata</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>AttivitaApprovata</t>
+          <t>AssegnazioneMonitoraggio</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
@@ -2876,248 +2906,456 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>AttivitaApprovata</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>NuovoSopralluogo</t>
+          <t>RiparazioneNonChiusa</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamentoR</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAvviata</t>
+          <t>PeriziaPostRiparazione</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>AvviaPeriziaPostRiparazione</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraVerificata</t>
+          <t>ChiusuraPostRiparazione</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraManuale</t>
+          <t>AvvioChiusuraPostRiparazione</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraVerificata</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAutomatica</t>
+          <t>VerificaChiusuraRiparazione</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaIncompleta</t>
+          <t>ApprovazioneBudget</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIncompleta</t>
+          <t>BudgetInApprovazione</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaIncompletaAvviata</t>
+          <t>ApprovazioneAttivita</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AttivitaApprovata</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>AppuntamentoPianificato</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>SelezioneTipoRiapertura</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>NonRiapertura</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>ApprovazioneBudget</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>SelezioneTipoRiapertura</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>PeriziaIntegrazione</t>
+          <t>SoprallugoCompletato</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIntegrazione</t>
+          <t>BudgetInApprovazione</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>SelezioneTipoRiapertura</t>
+          <t>BudgetInApprovazione</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>BudgetApprovato</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>EsecuzioneAttivita</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>EsecuzioneAttivita</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>PeriziaContestazione</t>
+          <t>AttivitaCompletata</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaContestazione</t>
+          <t>AttivitaInApprovazione</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
-        </is>
-      </c>
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>ContestazioneFinalizzata</t>
+          <t>EsecuzioneAttivita</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>FinalizzaContestazione</t>
+          <t>AttivitaApprovata</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>FinalizzaContestazione</t>
+          <t>AttivitaInApprovazione</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAvviata</t>
+          <t>AttivitaApprovata</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>AttivitaApprovata</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>AvviaPeriziaPostRiparazione</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaPostRiparazioneAvviata</t>
+          <t>AttivitaApprovata</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
+          <t>AttivitaApprovata</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>NuovoSopralluogo</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>PianificazioneAppuntamentoR</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>AvvioChiusura</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAvviata</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraVerificata</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraManuale</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraVerificata</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAutomatica</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaIncompleta</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>AvvioPeriziaIncompleta</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaIncompletaAvviata</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzionePerizia</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>DatiObbligatoriMancanti</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>SelezioneTipoRiapertura</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>NonRiapertura</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>SceltaManualeServizio</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>SelezioneTipoRiapertura</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaIntegrazione</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>AvvioPeriziaIntegrazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>SelezioneTipoRiapertura</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>GestioneContestazione</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>GestioneContestazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>GestioneContestazione</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaContestazione</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>AvvioPeriziaContestazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>GestioneContestazione</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>ContestazioneFinalizzata</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>FinalizzaContestazione</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>FinalizzaContestazione</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAvviata</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>AvvioChiusura</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>AvviaPeriziaPostRiparazione</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaPostRiparazioneAvviata</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>EsecuzionePerizia</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
           <t>AvvioChiusuraPostRiparazione</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>VerificaChiusura</t>
         </is>

--- a/global/Global.xlsx
+++ b/global/Global.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>SelezioneTipoRiapertura</t>
+          <t>GestioneRiapertura</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>SelezioneTipoRiapertura</t>
+          <t>GestioneRiapertura</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>AttivitaApprovata</t>
+          <t>AttivitaInApprovazione</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneAttivita</t>
+          <t>AttivitaInApprovazione</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>AttivitaApprovata</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -3085,17 +3090,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>AttivitaInApprovazione</t>
-        </is>
-      </c>
-      <c r="B160" s="2" t="inlineStr">
-        <is>
           <t>AttivitaApprovata</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>AttivitaApprovata</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
     </row>
@@ -3105,43 +3105,48 @@
           <t>AttivitaApprovata</t>
         </is>
       </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>NuovoSopralluogo</t>
+        </is>
+      </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>MonitoraggioAttivita</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>AttivitaApprovata</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>NuovoSopralluogo</t>
+          <t>ChiusuraAvviata</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneAppuntamentoR</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAvviata</t>
+          <t>ChiusuraVerificata</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>ChiusuraManuale</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3163,7 @@
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraManuale</t>
+          <t>ChiusuraAutomatica</t>
         </is>
       </c>
     </row>
@@ -3170,12 +3175,12 @@
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraVerificata</t>
+          <t>PeriziaIncompleta</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAutomatica</t>
+          <t>AvvioPeriziaIncompleta</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3192,12 @@
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>PeriziaIncompleta</t>
+          <t>PeriziaIncompletaAvviata</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIncompleta</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
@@ -3204,80 +3209,80 @@
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>PeriziaIncompletaAvviata</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>GestioneRiapertura</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>NonRiapertura</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>SelezioneTipoRiapertura</t>
+          <t>GestioneRiapertura</t>
         </is>
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>NonRiapertura</t>
+          <t>PeriziaIntegrazione</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>AvvioPeriziaIntegrazione</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>SelezioneTipoRiapertura</t>
+          <t>GestioneRiapertura</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>PeriziaIntegrazione</t>
+          <t>GestioneContestazione</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIntegrazione</t>
+          <t>GestioneContestazione</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="inlineStr">
         <is>
-          <t>SelezioneTipoRiapertura</t>
+          <t>GestioneContestazione</t>
         </is>
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>PeriziaContestazione</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>AvvioPeriziaContestazione</t>
         </is>
       </c>
     </row>
@@ -3289,73 +3294,56 @@
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>PeriziaContestazione</t>
+          <t>ContestazioneDaFinalizzare</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaContestazione</t>
+          <t>FinalizzaContestazione</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>GestioneContestazione</t>
+          <t>FinalizzaContestazione</t>
         </is>
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>ContestazioneFinalizzata</t>
+          <t>ChiusuraAvviata</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>FinalizzaContestazione</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
         <is>
-          <t>FinalizzaContestazione</t>
+          <t>AvviaPeriziaPostRiparazione</t>
         </is>
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAvviata</t>
+          <t>PeriziaPostRiparazioneAvviata</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="inlineStr">
         <is>
-          <t>AvviaPeriziaPostRiparazione</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaPostRiparazioneAvviata</t>
+          <t>AvvioChiusuraPostRiparazione</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzionePerizia</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>AvvioChiusuraPostRiparazione</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>VerificaChiusura</t>
         </is>

--- a/global/Global.xlsx
+++ b/global/Global.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,1066 +527,1051 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>CreazioneAutomaticaIncarico</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>DatiNonCompleti</t>
+          <t>RiparazioneAvviata</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>CreazioneAutomaticaIncarico</t>
+          <t>ConfigurazioneRiparazione</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>RiparazioneConfigurata</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>CreazioneAutomaticaIncarico</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneNonPrevista</t>
+          <t>MonitoraggioAssegnato</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>DefinizioneTimeline</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>DatiNonCompleti</t>
+          <t>AttivitaAssegnata</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>VenditaRiparazione</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>CompletamentoManualeIncarico</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>RiparazioneNonPrevista</t>
+          <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>VerificaDocumentiBudget</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>Abilita</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>ChiusuraIntervento</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>VerificaDocumentiBudget</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneNonVenduta</t>
+          <t>Chiude</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>MonitoraggioAttivita</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>VerificaDocumentiBudget</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>RiparazioneVenduta</t>
+          <t>TuttiLavoriTerminati</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>AvvioRiparazione</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>NessunServizio</t>
+          <t>DatiNonCompleti</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>PeriziaPostRiparazione</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>PERIZIA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>VerificaRiparazioneCompletata</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>ChiusuraPostRiparazione</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>CHIUSURA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>AppuntamentoPianificato</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>EsecVisioApprovazBudget</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Visio</t>
+          <t>AppuntamentoPianificato</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>AvvioVisio</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>EsecuzioneSopralluogoR</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>SopralluogoEseguito</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>ChiusuraIntervento</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>ChiusuraIntervento</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>NuovoSopralluogo</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneTriage</t>
+          <t>ChiusuraIntervento</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCE</t>
+          <t>AttivitaChiusa</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>FineLavori</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>FineLavori</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>LavoriTerminati</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>VerificaDocumentiBudget</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>FineLavori</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>NuovoSopralluogo</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>PianificazioneAppuntamentoR</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>CreazioneAutomaticaIncarico</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>DatiNonCompleti</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>CompletamentoManualeIncarico</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>CreazioneAutomaticaIncarico</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Visio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>CreazioneAutomaticaIncarico</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>RiparazioneNonPrevista</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>CompletamentoManualeIncarico</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>CompletamentoManualeIncarico</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCE</t>
+          <t>RiparazioneNonPrevista</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>InteressatoRiparazione</t>
+          <t>RiparazioneVenduta</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazione</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>NonInteressatoRiparazione</t>
+          <t>RiparazioneVenduta</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>VenditaRiparazionePA1</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>TimerScaduto</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>NessunServizio</t>
+          <t>RiparazioneNonVenduta</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>CampiObbligMancanti</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>SceltaManualeServizio</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>SelfCare</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>AvvioAccertSelfCare</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Visio</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>AvvioVisio</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Desk</t>
+          <t>Visio</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>AvvioVisio</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Sopralluogo</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>AvvioDesk</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCE</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>SelfCareEseguito</t>
+          <t>NessunServizio</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>EsecuzioneTriage</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>SelfCareNonEseguito</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>InvioLinkSelfCare</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>TimerScaduto</t>
+          <t>InteressatoRiparazione</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>SceltaAutomaticaServizio</t>
+          <t>VenditaRiparazione</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>AvvioAccertSelfCare</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>AccertSelfCareAvviati</t>
+          <t>NonInteressatoRiparazione</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>GestioneSelfCare</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>GestioneSelfCare</t>
+          <t>VenditaRiparazionePA1</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostSelfCare</t>
+          <t>TimerScaduto</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GestioneSelfCare</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusuraPostSelfCare</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
+          <t>SceltaAutomaticaServizio</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Visio</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
           <t>AvvioVisio</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>VisioPianificata</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneVisio</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>VisioPianificata</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioDesk</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>VisioCompletataNuovaVisio</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>NessunServizio</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>SelfCare</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioAccertSelfCare</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>VisioRifiutata</t>
+          <t>SelfCareEseguito</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneVisio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>VisioCompletata</t>
+          <t>SelfCareNonEseguito</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneVisio</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>VisioAssegnata</t>
+          <t>TimerScaduto</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeVisio</t>
+          <t>SceltaAutomaticaServizio</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>RichiestaModificaApptoPaVisio</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>RichiestaPaRicevuta</t>
+          <t>SopralluogoAvvioto</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AssegnazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>ConfermaModificaApptoPaVisio</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>ConfermaPaRicevuta</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioRiparazione</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>AvvioDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>DeskPianificata</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>InvioLinkSelfCare</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>DeskPianificata</t>
+          <t>SopralluogoPCE</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AvvioSopralluogoPCE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>DeskCompletataNuovaDesk</t>
+          <t>Sopralluogo</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>AvvioSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>CampiObbligMancanti</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>Visio</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AvvioManualeVisio</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>Desk</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AvvioManualeDesk</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AvvioAccertSelfCare</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>DeskRifiutata</t>
+          <t>AccertSelfCareAvviati</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneDesk</t>
+          <t>GestioneSelfCare</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneDesk</t>
+          <t>AssegnazioneSopralluogo</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>DeskCompletata</t>
+          <t>SopralluogoAssegnato</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>RiassegnazioneDesk</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>DeskAssegnata</t>
+          <t>AssegnazioneSopralluogo</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>AvvioManualeDesk</t>
+          <t>VerificaSopralluogoDopoRifiuto</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>RichiestaModificaApptoPaDesk</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>RichiestaPaRicevuta</t>
+          <t>SopralluogoPianificato</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>ConfermaModificaApptoPaDesk</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>ConfermaPaRicevuta</t>
+          <t>SopralluogoRifiutato</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>VerificaSopralluogoDopoRifiuto</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoAvviato</t>
+          <t>AnnullamentoSopralluogo</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1598,12 +1583,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogo</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoAssegnato</t>
+          <t>AppuntamentoAnnullato</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -1615,34 +1600,34 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
+          <t>EsecuzioneSopralluogo</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAttivita</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
           <t>PianificazioneSopralluogo</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>SopralluogoPianificato</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
+          <t>EsecuzioneSopralluogo</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraSoprallVariato</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
           <t>PianificazioneSopralluogo</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>SopralluogoRifiutato</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>VerificaSopralluogoDopoRifiuto</t>
         </is>
       </c>
     </row>
@@ -1654,12 +1639,12 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>AnnullamentoSopralluogo</t>
+          <t>AppuntamentoModificato</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogo</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1656,12 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1673,12 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAttivita</t>
+          <t>RichiestaNuovoSopralluogo</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
     </row>
@@ -1705,534 +1690,514 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraSoprallVariato</t>
+          <t>SopralluogoCompletato</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>AppuntamentoModificato</t>
+          <t>VerificaSopralluogoDopoRifiuto</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>VerificaSopralluogoDopoRifiuto</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoCompletatoNuovo</t>
+          <t>Approvato</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogo</t>
+          <t>PianificazioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogo</t>
+          <t>ApprovazioneSopralluogo</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>SoprallugoCompletato</t>
+          <t>NonApprovato</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>NuovoSopralluogoNonApprovato</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoDopoRifiuto</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoAssegnato</t>
+          <t>PeriziaAvviata</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogo</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogo</t>
+          <t>Pa_Sopralluogo</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Approvato</t>
+          <t>RichiestaPaRicevuta</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogo</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogo</t>
+          <t>Pa_Sopralluogo</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>NonApprovato</t>
+          <t>ConfermaPaRicevuta</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>NuovoSopralluogoNonApprovato</t>
+          <t>EsecuzioneSopralluogo</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>RichiestaModificaApptoPaSopralluogo</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>RichiestaPaRicevuta</t>
+          <t>GestioneSelfCare</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>ConfermaModificaApptoPaSopralluogo</t>
+          <t>GestioneSelfCare</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>ConfermaPaRicevuta</t>
+          <t>AvvioChiusuraPostSelfCare</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>NuovoSopralluogoNonApprovato</t>
+          <t>AvvioPeriziaPostDesk</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>NonApprovato</t>
+          <t>PeriziaAvviata</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEAvviato</t>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogoPCE</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogoPCE</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEAssegnato</t>
+          <t>AuthorityNonNecessaria</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEPianificato</t>
+          <t>CollabAvviata</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCERifiutato</t>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoPCEDopoRifiuto</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>AnnullamentoSopralluogo</t>
+          <t>AuthorityNecessaria</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>AssegnazioneSopralluogoPCE</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoAnnullato</t>
+          <t>RevisioniCompletate</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraAttivita</t>
+          <t>RevisioniNonCompletate</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>ChisuraSoprallVariato</t>
+          <t>EsitoScrittoEmail</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>AppuntamentoModificato</t>
+          <t>EsitoScrittoAtto</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>InvioAtto</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>AccordoNonRaggiunto</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCECompletatoNuovo</t>
+          <t>AccordoRaggiunto-o-NonRichiesto</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogoPCE</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneSopralluogoPCE</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>SoprallugoCompletato</t>
+          <t>AccordoRaggiunto-o-NonRichiesto</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>VerificaSopralluogoPCEDopoRifiuto</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>SopralluogoPCEAssegnato</t>
+          <t>EmailEsitoInviata</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>PianificazioneSopralluogoPCE</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>ApprovazioneSopralluogoPCE</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>Approvato</t>
+          <t>EmailEsitoInviata</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>AvvioSopralluogoPCE</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>RichiestaModificaApptoPaSopralluogoPCE</t>
+          <t>InvioAtto</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>RichiestaPaRicevuta</t>
+          <t>AttoInviato</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>ConfermaModificaApptoPaSopralluogoPCE</t>
+          <t>InvioAtto</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>ConfermaPaRicevuta</t>
+          <t>AttoInviato</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>EsecuzioneVisio</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>NuovoSopralluogoNonApprovatoPCE</t>
+          <t>AuthorityNonApprovata</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>NonApprovato</t>
+          <t>PeriziaNonApprovata</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>PeriziaAvviata</t>
+          <t>CollabRifiutata</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>PeriziaAvviata</t>
+          <t>CollabCancellata</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaContestazione</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>PeriziaContestazioneAvviata</t>
+          <t>CollabCompletata</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIncompleta</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaIncompletaAvviata</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -2244,12 +2209,7 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIntegrazione</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaIntegrazioneAvviata</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -2261,12 +2221,7 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>CollabAvviata</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -2278,255 +2233,240 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneNonCompletata</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>RevisioneAvviata</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>AuthorityNonNecessaria</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>CollabAvviata</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>RevisioneAvviata</t>
+          <t>PeriziaApprovata</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>AuthorityNecessaria</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>AuthorityNonApprovata</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>RevisioniCompletate</t>
+          <t>PeriziaConcilazioneAvviata</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>EsecuzionePeriziaConciliazione</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>RevisioniNonCompletate</t>
+          <t>ChiusuraConAccordo</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>ChiusuraSenzaAccordo</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>EsitoScrittoEmail</t>
+          <t>ChiusuraVerificata</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>InvioEmailEsito</t>
+          <t>ChiusuraManuale</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>EsitoScrittoAtto</t>
+          <t>ChiusuraVerificata</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>ChiusuraAutomatica</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>PeriziaIncompletaAvviata</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>AccordoRaggiunto-o-NonRichiesto</t>
+          <t>PeriziaIncompleta</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>InvioEmailEsito</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>EmailEsitoInviata</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>AttoInviato</t>
+          <t>ConciliazioneAvviata</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
@@ -2538,12 +2478,12 @@
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>ConciliazioneAvviata</t>
+          <t>AttoFirmato</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
@@ -2560,65 +2500,60 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>CollabRifiutata</t>
+          <t>start</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>CollabCancellata</t>
+          <t>start</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>AvvioPeriziaPostDesk</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>GestioneRiapertura</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>CollabCompletata</t>
+          <t>NonRiapertura</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>SceltaManualeServizio</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>GestioneRiapertura</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaIntegrazione</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
@@ -2630,720 +2565,100 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>GestioneRiapertura</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>GestioneContestazione</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>GestioneContestazione</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>GestioneContestazione</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaContestazione</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PeriziaContestazione</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>GestioneContestazione</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>ContestazioneDaFinalizzare</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>FinalizzaContestazione</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>FinalizzaContestazione</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>ChiusuraAvviata</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>ACCERTAMENTI</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Chiusura Post SelfCare</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>RIPARAZIONE</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraAvviata</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaInRevisione</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="inlineStr">
-        <is>
-          <t>AvvioPeriziaConciliazione</t>
-        </is>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaConcilazioneAvviata</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzionePerizia</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>ConciliazionePerizia</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaConcilazione</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>AvvioPeriziaConciliazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>ConciliazionePerizia</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>DatiObbligatoriMancanti</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>ConciliazionePerizia</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="inlineStr">
-        <is>
-          <t>ConciliazionePerizia</t>
-        </is>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraConAccordo</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>AvvioChiusura</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>VerificaAuthority</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaNonApprovata</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzionePerizia</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>VerificaAuthority</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaApprovata</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>ComunicazioneEsito</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>AvvioRiparazione</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>RiparazioneAvviata</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>ConfigurazioneRiparazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>ConfigurazioneRiparazione</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>RiparazioneConfigurata</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>DefinizioneTimeline</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>DefinizioneTimeline</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>TimelineDefinita</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>AssegnazioneMonitoraggio</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="inlineStr">
-        <is>
-          <t>DefinizioneTimeline</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>PianificazioneAppuntamentoR</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>AssegnazioneMonitoraggio</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>MonitoraggioTerminato</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>AssegnazioneMonitoraggio</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>MonitoraggioAttivita</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>RiparazioneNonChiusa</t>
-        </is>
-      </c>
-      <c r="C148" s="2" t="inlineStr">
-        <is>
-          <t>ConfigurazioneRiparazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaPostRiparazione</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>AvviaPeriziaPostRiparazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraPostRiparazione</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>AvvioChiusuraPostRiparazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>MonitoraggioAttivita</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusuraRiparazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>ApprovazioneBudget</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>BudgetInApprovazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>ApprovazioneAttivita</t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaInApprovazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>PianificazioneAppuntamentoR</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>AppuntamentoPianificato</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneSopralluogoR</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneSopralluogoR</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>ApprovazioneBudget</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneSopralluogoR</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>SoprallugoCompletato</t>
-        </is>
-      </c>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>BudgetInApprovazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>BudgetInApprovazione</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>BudgetApprovato</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneAttivita</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzioneAttivita</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaCompletata</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaInApprovazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaInApprovazione</t>
-        </is>
-      </c>
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaApprovata</t>
-        </is>
-      </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaApprovata</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaApprovata</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>MonitoraggioAttivita</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="inlineStr">
-        <is>
-          <t>AttivitaApprovata</t>
-        </is>
-      </c>
-      <c r="B161" s="2" t="inlineStr">
-        <is>
-          <t>NuovoSopralluogo</t>
-        </is>
-      </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>PianificazioneAppuntamentoR</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="inlineStr">
-        <is>
-          <t>AvvioChiusura</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraAvviata</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraVerificata</t>
-        </is>
-      </c>
-      <c r="C163" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraManuale</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraVerificata</t>
-        </is>
-      </c>
-      <c r="C164" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraAutomatica</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaIncompleta</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="inlineStr">
-        <is>
-          <t>AvvioPeriziaIncompleta</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaIncompletaAvviata</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzionePerizia</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>DatiObbligatoriMancanti</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>VerificaChiusura</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t>GestioneRiapertura</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>NonRiapertura</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>SceltaManualeServizio</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="inlineStr">
-        <is>
-          <t>GestioneRiapertura</t>
-        </is>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaIntegrazione</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>AvvioPeriziaIntegrazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="inlineStr">
-        <is>
-          <t>GestioneRiapertura</t>
-        </is>
-      </c>
-      <c r="B170" s="2" t="inlineStr">
-        <is>
-          <t>GestioneContestazione</t>
-        </is>
-      </c>
-      <c r="C170" s="2" t="inlineStr">
-        <is>
-          <t>GestioneContestazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>GestioneContestazione</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaContestazione</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>AvvioPeriziaContestazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>GestioneContestazione</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>ContestazioneDaFinalizzare</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>FinalizzaContestazione</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>FinalizzaContestazione</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraAvviata</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>AvvioChiusura</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>AvviaPeriziaPostRiparazione</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaPostRiparazioneAvviata</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzionePerizia</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>AvvioChiusuraPostRiparazione</t>
-        </is>
-      </c>
-      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>VerificaChiusura</t>
         </is>
